--- a/generated_output/temp/us-core-smokingstatus.xlsx
+++ b/generated_output/temp/us-core-smokingstatus.xlsx
@@ -193,7 +193,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -212,7 +212,7 @@
     <t>Observation.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -228,7 +228,7 @@
     <t>Observation.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -247,7 +247,7 @@
     <t>Observation.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -279,7 +279,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -305,7 +305,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -331,7 +331,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -366,7 +366,7 @@
     <t>Observation.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -398,7 +398,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/CarePlan], CanonicalType[http://hl7.org/fhir/StructureDefinition/DeviceRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/NutritionOrder], CanonicalType[http://hl7.org/fhir/StructureDefinition/ServiceRequest]]}
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
 </t>
   </si>
   <si>
@@ -427,7 +427,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationAdministration], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationDispense], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationStatement], CanonicalType[http://hl7.org/fhir/StructureDefinition/Procedure], CanonicalType[http://hl7.org/fhir/StructureDefinition/Immunization], CanonicalType[http://hl7.org/fhir/StructureDefinition/ImagingStudy]]}
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
 </t>
   </si>
   <si>
@@ -488,7 +488,7 @@
     <t>Observation.category</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -562,7 +562,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -593,7 +593,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -616,7 +616,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -651,8 +651,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Period {[]} {[]}Timing {[]} {[]}instant {[]} {[]}</t>
+    <t>dateTime
+PeriodTiminginstant</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -682,7 +682,7 @@
     <t>Observation.issued</t>
   </si>
   <si>
-    <t xml:space="preserve">instant {[]} {[]}
+    <t xml:space="preserve">instant
 </t>
   </si>
   <si>
@@ -707,7 +707,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization], CanonicalType[http://hl7.org/fhir/StructureDefinition/CareTeam], CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -841,7 +841,7 @@
     <t>Observation.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[]} {[]}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -927,7 +927,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Specimen]]}
+    <t xml:space="preserve">Reference(Specimen)
 </t>
   </si>
   <si>
@@ -955,7 +955,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Device], CanonicalType[http://hl7.org/fhir/StructureDefinition/DeviceMetric]]}
+    <t xml:space="preserve">Reference(Device|DeviceMetric)
 </t>
   </si>
   <si>
@@ -983,7 +983,7 @@
     <t>Observation.referenceRange</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -1012,7 +1012,7 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -1057,7 +1057,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {[CanonicalType[http://hl7.org/fhir/StructureDefinition/SimpleQuantity]]} {[]}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1146,7 +1146,7 @@
     <t>Observation.referenceRange.age</t>
   </si>
   <si>
-    <t xml:space="preserve">Range {[]} {[]}
+    <t xml:space="preserve">Range
 </t>
   </si>
   <si>
@@ -1177,7 +1177,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation], CanonicalType[http://hl7.org/fhir/StructureDefinition/QuestionnaireResponse], CanonicalType[http://hl7.org/fhir/StructureDefinition/MolecularSequence]]}
+    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
 </t>
   </si>
   <si>
@@ -1199,7 +1199,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/DocumentReference], CanonicalType[http://hl7.org/fhir/StructureDefinition/ImagingStudy], CanonicalType[http://hl7.org/fhir/StructureDefinition/Media], CanonicalType[http://hl7.org/fhir/StructureDefinition/QuestionnaireResponse], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation], CanonicalType[http://hl7.org/fhir/StructureDefinition/MolecularSequence]]}
+    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
 </t>
   </si>
   <si>
@@ -1274,8 +1274,8 @@
     <t>Observation.component.value[x]</t>
   </si>
   <si>
-    <t>Quantity {[]} {[]}
-CodeableConcept {[]} {[]}string {[]} {[]}boolean {[]} {[]}integer {[]} {[]}Range {[]} {[]}Ratio {[]} {[]}SampledData {[]} {[]}time {[]} {[]}dateTime {[]} {[]}Period {[]} {[]}</t>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1362,67 +1362,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
